--- a/数据整理/stocks/A股/科创板/688690-纳微科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688690-纳微科技.xlsx
@@ -1,102 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q2" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>004946</t>
-  </si>
-  <si>
-    <t>004947</t>
-  </si>
-  <si>
-    <t>汇添富盈润混合A</t>
-  </si>
-  <si>
-    <t>汇添富盈润混合C</t>
-  </si>
-  <si>
-    <t>4.80</t>
-  </si>
-  <si>
-    <t>0.77</t>
-  </si>
-  <si>
-    <t>22.01</t>
-  </si>
-  <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>0.0043</t>
-  </si>
-  <si>
-    <t>0.0007</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -119,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -421,89 +446,341 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004946</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富盈润混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004947</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富盈润混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688690-纳微科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688690-纳微科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688690-纳微科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688690-纳微科技.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -792,7 +793,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -803,17 +804,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -823,14 +844,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>910005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启兴三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4152</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.11</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="3">
@@ -839,13 +934,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688690-纳微科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688690-纳微科技.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -887,7 +888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -898,17 +899,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -918,14 +939,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.42</v>
+          <t>005176</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国精准医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2510</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -934,14 +977,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.11</v>
+          <t>000452</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0807</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -950,13 +1015,325 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>010703</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通智选消费股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010704</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通智选消费股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688690-纳微科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688690-纳微科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1248,7 +1249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1259,17 +1260,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1279,14 +1300,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.41</v>
+          <t>005176</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国精准医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2798</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1295,14 +1338,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.42</v>
+          <t>000452</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2635</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1311,14 +1376,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.11</v>
+          <t>010054</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1685</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1327,13 +1414,341 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014933</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688690-纳微科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688690-纳微科技.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>2.78</v>
+        <v>8.039999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>2.41</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.42</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.11</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -566,6 +583,1008 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006113</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富创新医药主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>85.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4861</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3529</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000452</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3051</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>470006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>46.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2919</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009664</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>66.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9118</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010054</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1518</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1264</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009665</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>66.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1136</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>506009</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008107</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商医药医疗行业股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012358</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>58.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>620001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>金元顺安宝石动力混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>40.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005493</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>76.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014933</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014285</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鑫元健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006193</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012359</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>58.14</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014286</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鑫元健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>015121</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005494</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>76.82</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006194</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>960015</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合O</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015122</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.81</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -963,7 +1982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1323,7 +2342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1417,7 +2436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1625,7 +2644,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688690-纳微科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688690-纳微科技.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>8.039999999999999</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>2.78</v>
+        <v>8.039999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>2.41</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>0.42</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.11</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -583,6 +600,250 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005262</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009395</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鑫元安鑫回报混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005263</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>016259</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鑫元安鑫回报混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1584,7 +1845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1982,7 +2243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2342,7 +2603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2436,7 +2697,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2644,7 +2905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
